--- a/LabelInference/experiment/result.xlsx
+++ b/LabelInference/experiment/result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linhong\Dropbox\researchlinhong\semi_supervised_sentiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linhong\Documents\GitHub\CrossLPTripartite\LabelInference\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
   <si>
     <t>Random</t>
   </si>
@@ -60,6 +60,57 @@
   </si>
   <si>
     <t>graph3-10</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>graphs2-5</t>
+  </si>
+  <si>
+    <t>graphs2-10</t>
+  </si>
+  <si>
+    <t>428:402</t>
+  </si>
+  <si>
+    <t>547:283</t>
+  </si>
+  <si>
+    <t>692:138</t>
+  </si>
+  <si>
+    <t>860:800</t>
+  </si>
+  <si>
+    <t>1093:567</t>
+  </si>
+  <si>
+    <t>1530:130</t>
+  </si>
+  <si>
+    <t>graphs3-5</t>
+  </si>
+  <si>
+    <t>graphs3-10</t>
+  </si>
+  <si>
+    <t>2186:555</t>
+  </si>
+  <si>
+    <t>2494:247</t>
+  </si>
+  <si>
+    <t>2547:194</t>
+  </si>
+  <si>
+    <t>4596:887</t>
+  </si>
+  <si>
+    <t>4972:511</t>
+  </si>
+  <si>
+    <t>5269:214</t>
   </si>
 </sst>
 </file>
@@ -95,12 +146,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -116,6 +171,1051 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ratio</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> VS Accuracy</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$12:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.63157894736842102</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.68421052631578949</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$12:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.74199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78879999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="402756000"/>
+        <c:axId val="485825696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="402756000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485825696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="485825696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402756000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,30 +1481,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -624,6 +1727,366 @@
         <v>0.90600000000000003</v>
       </c>
       <c r="J8">
+        <v>0.90090000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <f>5/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C12">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="F12" s="4">
+        <f>5/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G12">
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4">
+        <f>4/9</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C13">
+        <v>0.73150000000000004</v>
+      </c>
+      <c r="F13" s="4">
+        <f>4/9</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G13">
+        <v>0.73150000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.71599999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f>12/19</f>
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="G15">
+        <v>0.78879999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <f>12/19</f>
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="C16">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="F16">
+        <f>13/19</f>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G16">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <f>13/19</f>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="C17">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <f>402/(428+402)</f>
+        <v>0.48433734939759038</v>
+      </c>
+      <c r="D21">
+        <v>0.80940000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <f>283/(283+547)</f>
+        <v>0.34096385542168672</v>
+      </c>
+      <c r="D22">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <f>138/(138+692)</f>
+        <v>0.16626506024096385</v>
+      </c>
+      <c r="D23">
+        <v>0.68020000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <f>800/(800+802)</f>
+        <v>0.49937578027465668</v>
+      </c>
+      <c r="D25">
+        <v>0.82189999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <f>567/(567+1093)</f>
+        <v>0.34156626506024096</v>
+      </c>
+      <c r="D26">
+        <v>0.79330000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <f>130/(130+1530)</f>
+        <v>7.8313253012048195E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.70540000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <f>555/(555+2186)</f>
+        <v>0.20248084640642103</v>
+      </c>
+      <c r="D31">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <f>247/(247+2494)</f>
+        <v>9.0113097409704482E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <f>194/(194+2547)</f>
+        <v>7.0777088653775994E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35">
+        <f>887/(887+4596)</f>
+        <v>0.16177275214298742</v>
+      </c>
+      <c r="D35">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36">
+        <f>511/(511+4972)</f>
+        <v>9.3197154842239643E-2</v>
+      </c>
+      <c r="D36">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37">
+        <f>214/(214+5269)</f>
+        <v>3.9029728250957504E-2</v>
+      </c>
+      <c r="D37">
         <v>0.90090000000000003</v>
       </c>
     </row>
@@ -635,5 +2098,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>